--- a/【长沙】-邱帅、茹浪组员进度表.xlsx
+++ b/【长沙】-邱帅、茹浪组员进度表.xlsx
@@ -61,7 +61,7 @@
     <t>第五天</t>
   </si>
   <si>
-    <t>答辩</t>
+    <t>准备答辩</t>
   </si>
 </sst>
 </file>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -87,6 +87,14 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,24 +121,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,13 +158,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -165,9 +174,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,17 +204,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,36 +229,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,55 +249,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,54 +411,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -364,60 +418,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,15 +434,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -461,32 +452,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,17 +479,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +510,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -542,10 +542,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +554,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/【长沙】-邱帅、茹浪组员进度表.xlsx
+++ b/【长沙】-邱帅、茹浪组员进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>日期</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>首页css、购买css</t>
+  </si>
+  <si>
+    <t>首页css已完成70%</t>
+  </si>
+  <si>
+    <t>获取数据，添加到页面中</t>
+  </si>
+  <si>
+    <t>学习AJAX获取数据的请求使用</t>
   </si>
   <si>
     <t>第二天</t>
@@ -69,8 +78,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -90,16 +99,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,8 +121,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,17 +152,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,31 +189,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,30 +229,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,14 +237,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,25 +258,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,151 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,6 +443,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -448,30 +475,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,15 +514,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -534,6 +528,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -542,10 +551,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,137 +563,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -696,6 +705,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1037,7 +1049,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1046,8 +1058,8 @@
     <col min="2" max="2" width="53.625" customWidth="1"/>
     <col min="3" max="3" width="22.725" customWidth="1"/>
     <col min="4" max="4" width="16.5416666666667" customWidth="1"/>
-    <col min="5" max="5" width="17.8166666666667" customWidth="1"/>
-    <col min="6" max="6" width="23.725" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:6">
@@ -1077,17 +1089,25 @@
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1096,10 +1116,10 @@
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1108,10 +1128,10 @@
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1120,10 +1140,10 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/【长沙】-邱帅、茹浪组员进度表.xlsx
+++ b/【长沙】-邱帅、茹浪组员进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>日期</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>首页JS、购买js、登录和注册css、结算页面CSS、加入购物车</t>
+  </si>
+  <si>
+    <t>首页css和js基本完成80%</t>
+  </si>
+  <si>
+    <t>定位属性很乱</t>
+  </si>
+  <si>
+    <t>jquery运用更加灵活</t>
   </si>
   <si>
     <t>第三天</t>
@@ -78,8 +87,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -100,7 +109,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,6 +138,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -130,31 +154,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,31 +214,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,22 +247,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,13 +267,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,163 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,6 +452,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,11 +479,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,64 +547,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,145 +560,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,8 +1057,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1109,17 +1118,25 @@
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.854166666666667</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1128,10 +1145,10 @@
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1140,10 +1157,10 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/【长沙】-邱帅、茹浪组员进度表.xlsx
+++ b/【长沙】-邱帅、茹浪组员进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>日期</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>登录和注册js、结算页面js、加入购物车js</t>
+  </si>
+  <si>
+    <t>登录注册完成、结算页面完成</t>
+  </si>
+  <si>
+    <t>还行</t>
   </si>
   <si>
     <t>第四天</t>
@@ -87,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -115,9 +121,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,40 +234,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,67 +257,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -267,181 +273,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,6 +458,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -479,21 +524,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -501,6 +531,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,39 +558,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -560,10 +566,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,7 +578,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,124 +587,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,14 +1064,14 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="23.725" customWidth="1"/>
     <col min="2" max="2" width="53.625" customWidth="1"/>
-    <col min="3" max="3" width="22.725" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
     <col min="4" max="4" width="16.5416666666667" customWidth="1"/>
     <col min="5" max="5" width="21.75" customWidth="1"/>
     <col min="6" max="6" width="26.375" customWidth="1"/>
@@ -1138,17 +1144,25 @@
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.822916666666667</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1157,10 +1171,10 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/【长沙】-邱帅、茹浪组员进度表.xlsx
+++ b/【长沙】-邱帅、茹浪组员进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>日期</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>连接调试，试运行，修改调整、写答辩PPT</t>
+  </si>
+  <si>
+    <t>组员作业合并，试运行</t>
+  </si>
+  <si>
+    <t>cookie</t>
+  </si>
+  <si>
+    <t>练习加深经验</t>
   </si>
   <si>
     <t>第五天</t>
@@ -93,9 +102,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -122,12 +131,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -136,7 +168,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,7 +214,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,14 +222,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,7 +246,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,71 +261,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -273,12 +282,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -291,163 +444,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,8 +473,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,17 +524,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,7 +552,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,30 +567,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -566,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,7 +1073,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1164,17 +1173,25 @@
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.770833333333333</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
